--- a/マップ.xlsx
+++ b/マップ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D3B171-171B-450D-AA3B-BA4D2A9B7D20}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02BACB3-9F5E-4F13-97E6-1A6827758C85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,12 +102,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="W13" authorId="0" shapeId="0" xr:uid="{6A9A5395-9659-4396-A62D-75FB8FCC2D3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>初回はEvent</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>■1F</t>
     <phoneticPr fontId="1"/>
@@ -142,13 +157,6 @@
   </si>
   <si>
     <t>■9F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大樹</t>
-    <rPh sb="0" eb="2">
-      <t>タイジュ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -424,6 +432,84 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>ダマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陣
+3-5</t>
+    <rPh sb="0" eb="1">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陣
+1-3</t>
+    <rPh sb="0" eb="1">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陣
+1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階段
+3-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階段
+7-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天秤</t>
+    <rPh sb="0" eb="2">
+      <t>テンビン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天秤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重り</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階段
+4-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陣
+5-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送</t>
+    <rPh sb="0" eb="2">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階段
+5-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お店</t>
+    <rPh sb="1" eb="2">
+      <t>ミセ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -476,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -558,19 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FFFF0000"/>
       </left>
@@ -662,6 +735,19 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -737,6 +823,21 @@
         <color rgb="FFFF0000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -916,35 +1017,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashDot">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashDot">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -963,10 +1231,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -982,8 +1250,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -994,7 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1002,33 +1270,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1312,7 +1613,7 @@
   <dimension ref="B1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1326,27 +1627,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="18.600000000000001" thickBot="1">
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="56"/>
+        <v>35</v>
+      </c>
+      <c r="K1" s="55"/>
       <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="62"/>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="2:27" ht="19.2" thickTop="1" thickBot="1">
+      <c r="B2" s="13"/>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="2:27" ht="19.2" thickTop="1" thickBot="1">
-      <c r="B2" s="14"/>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="62"/>
-      <c r="L2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="18.600000000000001" thickTop="1"/>
@@ -1358,274 +1659,290 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T4" t="s">
         <v>2</v>
       </c>
       <c r="U4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="18.600000000000001" thickBot="1">
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="34.200000000000003" customHeight="1" thickBot="1">
-      <c r="B6" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="34" t="s">
+      <c r="B6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="52" t="s">
+      <c r="N6" s="50"/>
+      <c r="O6" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="38"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="22"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="18"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="19"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="29"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="18"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="19"/>
-      <c r="T7" s="18"/>
-      <c r="AA7" s="19"/>
+      <c r="R7" s="18"/>
+      <c r="T7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="57"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="58"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="37"/>
+      <c r="I8" s="57"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="19"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="52" t="s">
+      <c r="R8" s="18"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="V8" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="52" t="s">
+      <c r="Y8" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="19"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="27" t="s">
-        <v>33</v>
+      <c r="B9" s="17"/>
+      <c r="C9" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="19"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="19"/>
+      <c r="R9" s="18"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="18"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="17" t="s">
-        <v>46</v>
+      <c r="B10" s="17"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="19"/>
-      <c r="T10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="T10" s="17"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="52" t="s">
+      <c r="W10" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="X10" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="19"/>
+      <c r="AA10" s="18"/>
     </row>
     <row r="11" spans="2:27" ht="34.200000000000003" customHeight="1" thickBot="1">
-      <c r="B11" s="18"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="19"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="19"/>
-      <c r="T11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="T11" s="17"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="32"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="31"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="19"/>
+      <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B12" s="33"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="21"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="58"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="57"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="19"/>
-      <c r="T12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="T12" s="17"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="19"/>
-    </row>
-    <row r="13" spans="2:27" ht="34.200000000000003" customHeight="1" thickBot="1">
-      <c r="B13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="67" t="s">
+      <c r="AA12" s="18"/>
+    </row>
+    <row r="13" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="66"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="36" t="s">
-        <v>18</v>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="25"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:27">
@@ -1633,13 +1950,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
         <v>4</v>
       </c>
       <c r="L16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T16" t="s">
         <v>5</v>
@@ -1647,222 +1964,294 @@
     </row>
     <row r="17" spans="2:27" ht="18.600000000000001" thickBot="1">
       <c r="U17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" ht="34.200000000000003" customHeight="1">
-      <c r="B18" s="38"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="34.200000000000003" customHeight="1" thickBot="1">
+      <c r="B18" s="37"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="21"/>
+      <c r="K18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="T18" s="38"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" ht="34.200000000000003" customHeight="1">
-      <c r="B19" s="18"/>
-      <c r="C19" s="1"/>
+      <c r="R18" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="37"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W18" s="50"/>
+      <c r="X18" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="21"/>
+    </row>
+    <row r="19" spans="2:27" ht="34.200000000000003" customHeight="1" thickBot="1">
+      <c r="B19" s="17"/>
+      <c r="C19" s="70" t="s">
+        <v>52</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="19"/>
-      <c r="K19" s="18"/>
+      <c r="H19" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="19"/>
-      <c r="T19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="T19" s="17"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="19"/>
-    </row>
-    <row r="20" spans="2:27" ht="34.200000000000003" customHeight="1">
-      <c r="B20" s="18"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="AA19" s="18"/>
+    </row>
+    <row r="20" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="17"/>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="19"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="19"/>
-      <c r="T20" s="18"/>
+      <c r="G20" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="18"/>
+      <c r="T20" s="17"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="19"/>
-    </row>
-    <row r="21" spans="2:27" ht="34.200000000000003" customHeight="1">
-      <c r="B21" s="18"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="AA20" s="18"/>
+    </row>
+    <row r="21" spans="2:27" ht="34.200000000000003" customHeight="1" thickBot="1">
+      <c r="B21" s="17"/>
+      <c r="C21" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>54</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="19"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="1"/>
+      <c r="G21" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="19"/>
-      <c r="T21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="T21" s="17"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="19"/>
-    </row>
-    <row r="22" spans="2:27" ht="34.200000000000003" customHeight="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="AA21" s="18"/>
+    </row>
+    <row r="22" spans="2:27" ht="34.200000000000003" customHeight="1" thickBot="1">
+      <c r="B22" s="17"/>
+      <c r="C22" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>54</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="19"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="1"/>
+      <c r="G22" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="17"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="19"/>
-      <c r="T22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="85"/>
+      <c r="T22" s="17"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="19"/>
-    </row>
-    <row r="23" spans="2:27" ht="34.200000000000003" customHeight="1">
-      <c r="B23" s="18"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="AA22" s="18"/>
+    </row>
+    <row r="23" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B23" s="17"/>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>53</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="19"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="1"/>
+      <c r="G23" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="17"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="19"/>
-      <c r="T23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="84"/>
+      <c r="T23" s="17"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="19"/>
-    </row>
-    <row r="24" spans="2:27" ht="34.200000000000003" customHeight="1">
-      <c r="B24" s="18"/>
-      <c r="C24" s="1"/>
+      <c r="AA23" s="18"/>
+    </row>
+    <row r="24" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B24" s="17"/>
+      <c r="C24" s="70" t="s">
+        <v>53</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="19"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="H24" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="80"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="19"/>
-      <c r="T24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="84"/>
+      <c r="T24" s="17"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="19"/>
-    </row>
-    <row r="25" spans="2:27" ht="34.200000000000003" customHeight="1" thickBot="1">
-      <c r="B25" s="26"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="36"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="36"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="36"/>
+      <c r="AA24" s="18"/>
+    </row>
+    <row r="25" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B25" s="25"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="35"/>
+      <c r="K25" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="38"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" s="25"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="35"/>
     </row>
     <row r="28" spans="2:27" ht="18.600000000000001" thickBot="1">
       <c r="B28" t="s">
@@ -1876,24 +2265,28 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="34.200000000000003" customHeight="1" thickBot="1">
-      <c r="B29" s="38"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="48"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="47"/>
       <c r="T29" s="2"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
@@ -1901,214 +2294,218 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" ht="34.200000000000003" customHeight="1" thickBot="1">
-      <c r="B30" s="18"/>
+      <c r="AA29" s="79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B30" s="17"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="19"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30" s="41"/>
-      <c r="T30" s="5"/>
+      <c r="I30" s="18"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R30" s="40"/>
+      <c r="T30" s="4"/>
       <c r="U30" s="2"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA30" s="7" t="s">
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="AA30" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B31" s="18"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="19"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="25"/>
+      <c r="H31" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="24"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="R31" s="41"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y31" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="12"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="40"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="11"/>
     </row>
     <row r="32" spans="2:27" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B32" s="18"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="19"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="41"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="7"/>
+      <c r="I32" s="18"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="40"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="6"/>
     </row>
     <row r="33" spans="2:29" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B33" s="18"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="19"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="32"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="41"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="31" t="s">
-        <v>22</v>
+      <c r="I33" s="18"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="31"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="40"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="W33" s="1"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="7"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="6"/>
     </row>
     <row r="34" spans="2:29" ht="34.200000000000003" customHeight="1" thickBot="1">
-      <c r="B34" s="18"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="19"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="41"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="W34" s="24"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="7"/>
+      <c r="I34" s="18"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="40"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="W34" s="23"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="6"/>
       <c r="AC34" s="1"/>
     </row>
     <row r="35" spans="2:29" ht="34.200000000000003" customHeight="1" thickBot="1">
-      <c r="B35" s="18"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="19"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="41"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="7"/>
-    </row>
-    <row r="36" spans="2:29" ht="34.200000000000003" customHeight="1" thickBot="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="36"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="43"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="10"/>
+      <c r="I35" s="18"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="40"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="2:29" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B36" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="35"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2133,7 +2530,7 @@
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
